--- a/var_info/indv_panel_var_info/BES14_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/BES14_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD0EF3-9296-D444-92DC-1AB8C3839B37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF297F9-7E2E-B94A-9EEB-4943852FFB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
   <si>
     <t>ord</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1073,7 +1076,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1117,10 +1120,13 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1157,11 @@
       <c r="J2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1192,11 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1227,11 @@
       <c r="J4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1253,8 +1268,11 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1290,6 +1308,9 @@
       </c>
       <c r="M6" t="s">
         <v>29</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1311,7 +1332,7 @@
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1355,10 +1376,13 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1374,11 +1398,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1394,11 +1418,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1414,11 +1438,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1458,7 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1445,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1456,7 +1480,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1500,10 +1524,13 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1519,11 +1546,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1539,11 +1566,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1559,11 +1586,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1579,11 +1606,11 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1599,11 +1626,11 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1619,11 +1646,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1666,7 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1650,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1662,7 +1689,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1706,10 +1733,13 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1725,11 +1755,11 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1745,11 +1775,11 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1765,11 +1795,11 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1815,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1799,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1810,7 +1840,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1854,6 +1884,9 @@
         <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1866,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB46006-FBFE-7543-9A21-8F58628BC60F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
